--- a/Code/Results/Cases/Case_1_101/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_101/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.190403581030071</v>
+        <v>7.912706907596791</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>5.13660557931589</v>
+        <v>4.156067313357373</v>
       </c>
       <c r="E2">
-        <v>5.237797347889192</v>
+        <v>10.37794237335392</v>
       </c>
       <c r="F2">
-        <v>66.41306192108598</v>
+        <v>63.30968393511017</v>
       </c>
       <c r="G2">
-        <v>2.144641535157144</v>
+        <v>3.788138677660062</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,16 +445,16 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.927285341784825</v>
+        <v>10.50720820900608</v>
       </c>
       <c r="K2">
-        <v>14.86753416796904</v>
+        <v>18.30029352255165</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>11.70839870528732</v>
+        <v>19.05373918289274</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.840734907360944</v>
+        <v>7.848610166299977</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.875181788835679</v>
+        <v>4.106801428835364</v>
       </c>
       <c r="E3">
-        <v>5.282307197197614</v>
+        <v>10.41586474912769</v>
       </c>
       <c r="F3">
-        <v>63.30948083295955</v>
+        <v>62.45627643225887</v>
       </c>
       <c r="G3">
-        <v>2.157914724056685</v>
+        <v>3.792548819160817</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,16 +492,16 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.859963063773838</v>
+        <v>10.5069123178699</v>
       </c>
       <c r="K3">
-        <v>13.80035990179576</v>
+        <v>18.27358556808354</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>11.34845807553602</v>
+        <v>19.10555646131287</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.621611073623751</v>
+        <v>7.810942253039857</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.710241050625281</v>
+        <v>4.077259667920331</v>
       </c>
       <c r="E4">
-        <v>5.312856623253678</v>
+        <v>10.44074945874019</v>
       </c>
       <c r="F4">
-        <v>61.37278221674295</v>
+        <v>61.93269357720263</v>
       </c>
       <c r="G4">
-        <v>2.16620957811036</v>
+        <v>3.795393414181876</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,16 +539,16 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.820887488134857</v>
+        <v>10.50756568988588</v>
       </c>
       <c r="K4">
-        <v>13.29487555483183</v>
+        <v>18.26483862089576</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>11.13863765655473</v>
+        <v>19.14315016938513</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.53131232682505</v>
+        <v>7.796032087916601</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.641907757876714</v>
+        <v>4.065408831346025</v>
       </c>
       <c r="E5">
-        <v>5.326096747925417</v>
+        <v>10.4512933621178</v>
       </c>
       <c r="F5">
-        <v>60.57614669200348</v>
+        <v>61.71960421174053</v>
       </c>
       <c r="G5">
-        <v>2.169630514728737</v>
+        <v>3.796587142362208</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,16 +586,16 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.805508097663806</v>
+        <v>10.50804189237857</v>
       </c>
       <c r="K5">
-        <v>13.08876715367145</v>
+        <v>18.26319860326296</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>11.05595603442018</v>
+        <v>19.15991805460574</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.516261230604739</v>
+        <v>7.793583264651499</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.630493541739012</v>
+        <v>4.063452617842469</v>
       </c>
       <c r="E6">
-        <v>5.328342515707344</v>
+        <v>10.4530685439341</v>
       </c>
       <c r="F6">
-        <v>60.44343287384015</v>
+        <v>61.68424246551374</v>
       </c>
       <c r="G6">
-        <v>2.170201134377564</v>
+        <v>3.796787449971718</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,16 +633,16 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.802986554224589</v>
+        <v>10.5081336442386</v>
       </c>
       <c r="K6">
-        <v>13.05454267485747</v>
+        <v>18.26304247293464</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>11.04239757486568</v>
+        <v>19.16278966832975</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.620397179442013</v>
+        <v>7.810739368773925</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.709324013052019</v>
+        <v>4.077099071036441</v>
       </c>
       <c r="E7">
-        <v>5.313032005150429</v>
+        <v>10.44089002399239</v>
       </c>
       <c r="F7">
-        <v>61.36206789007408</v>
+        <v>61.92981844154487</v>
       </c>
       <c r="G7">
-        <v>2.166255543877949</v>
+        <v>3.795409373205725</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,16 +680,16 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.820677903553076</v>
+        <v>10.50757126210182</v>
       </c>
       <c r="K7">
-        <v>13.29209608659789</v>
+        <v>18.26480871261396</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>11.13751114277792</v>
+        <v>19.14337045010299</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.070815425961887</v>
+        <v>7.890265552504042</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>5.047378279600472</v>
+        <v>4.138939530187269</v>
       </c>
       <c r="E8">
-        <v>5.252464190601688</v>
+        <v>10.39068635972137</v>
       </c>
       <c r="F8">
-        <v>65.34959075926452</v>
+        <v>63.01544621014634</v>
       </c>
       <c r="G8">
-        <v>2.149190704169138</v>
+        <v>3.789630999831816</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,16 +727,16 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.90358828486567</v>
+        <v>10.50693285794694</v>
       </c>
       <c r="K8">
-        <v>14.48468451605908</v>
+        <v>18.28949739150378</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>11.58197378200632</v>
+        <v>19.07040390755884</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.915238204625634</v>
+        <v>8.058893475823917</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>5.676060928031959</v>
+        <v>4.265375635853896</v>
       </c>
       <c r="E9">
-        <v>5.160178495233474</v>
+        <v>10.30489874884906</v>
       </c>
       <c r="F9">
-        <v>72.91364448945038</v>
+        <v>65.14011811406412</v>
       </c>
       <c r="G9">
-        <v>2.116662299755793</v>
+        <v>3.779378028292558</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,16 +774,16 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.085320136477335</v>
+        <v>10.5123083766045</v>
       </c>
       <c r="K9">
-        <v>17.14892946038277</v>
+        <v>18.39850025359344</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>12.69831839523757</v>
+        <v>18.97335434699354</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.519664574377392</v>
+        <v>8.189511402480823</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>6.119232623659015</v>
+        <v>4.36079506160779</v>
       </c>
       <c r="E10">
-        <v>5.109985811617941</v>
+        <v>10.24954117603298</v>
       </c>
       <c r="F10">
-        <v>78.3172115939191</v>
+        <v>66.68854371857732</v>
       </c>
       <c r="G10">
-        <v>2.092989997727393</v>
+        <v>3.772493270515148</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,16 +821,16 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.232424000287994</v>
+        <v>10.52030070115537</v>
       </c>
       <c r="K10">
-        <v>18.99064507040635</v>
+        <v>18.51519076550067</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>14.0377494051293</v>
+        <v>18.93035896745345</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.840371694168415</v>
+        <v>8.250170321426717</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>6.317534992458585</v>
+        <v>4.40461535991216</v>
       </c>
       <c r="E11">
-        <v>5.091353406613484</v>
+        <v>10.22601311752958</v>
       </c>
       <c r="F11">
-        <v>80.74664892274519</v>
+        <v>67.3881566897322</v>
       </c>
       <c r="G11">
-        <v>2.082178127145644</v>
+        <v>3.769499945592887</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.30280413921535</v>
+        <v>10.52481452554483</v>
       </c>
       <c r="K11">
-        <v>19.80783044862944</v>
+        <v>18.5761036858401</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>14.63059854571379</v>
+        <v>18.91698812241594</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.959764398581861</v>
+        <v>8.27329940883282</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>6.392237281336483</v>
+        <v>4.421256762932778</v>
       </c>
       <c r="E12">
-        <v>5.084938471977293</v>
+        <v>10.21734079457998</v>
       </c>
       <c r="F12">
-        <v>81.66316782613605</v>
+        <v>67.65222575448183</v>
       </c>
       <c r="G12">
-        <v>2.078068579041845</v>
+        <v>3.76838622499521</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,16 +915,16 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.330003854048408</v>
+        <v>10.52664995497098</v>
       </c>
       <c r="K12">
-        <v>20.11476430385061</v>
+        <v>18.60028183592968</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>14.85305299810804</v>
+        <v>18.91281738010174</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.934140986539573</v>
+        <v>8.268311391636885</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>6.376164625787636</v>
+        <v>4.417670810131937</v>
       </c>
       <c r="E13">
-        <v>5.086290907210534</v>
+        <v>10.21919799338783</v>
       </c>
       <c r="F13">
-        <v>81.46591941159626</v>
+        <v>67.59539466856683</v>
       </c>
       <c r="G13">
-        <v>2.078954486906885</v>
+        <v>3.76862520689604</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.324120624600848</v>
+        <v>10.52624905456319</v>
       </c>
       <c r="K13">
-        <v>20.04876453661976</v>
+        <v>18.59502544309159</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>14.80522868903385</v>
+        <v>18.91367589243644</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.850234857467973</v>
+        <v>8.252070093363722</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>6.32368807000038</v>
+        <v>4.405983571834851</v>
       </c>
       <c r="E14">
-        <v>5.090812576434012</v>
+        <v>10.22529488932564</v>
       </c>
       <c r="F14">
-        <v>80.82211601453311</v>
+        <v>67.40990000247945</v>
       </c>
       <c r="G14">
-        <v>2.081840396936218</v>
+        <v>3.769407923388686</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,16 +1009,16 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.30503056707842</v>
+        <v>10.52496300019016</v>
       </c>
       <c r="K14">
-        <v>19.83312966587112</v>
+        <v>18.57807064494352</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>14.64893895149989</v>
+        <v>18.91662709227439</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.79857512529885</v>
+        <v>8.242141938666412</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>6.291496634095246</v>
+        <v>4.398830649361954</v>
       </c>
       <c r="E15">
-        <v>5.093666848230641</v>
+        <v>10.22906029082294</v>
       </c>
       <c r="F15">
-        <v>80.42734190975717</v>
+        <v>67.29616222626618</v>
       </c>
       <c r="G15">
-        <v>2.083605807953931</v>
+        <v>3.76988993242925</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.293410405887029</v>
+        <v>10.52419167788335</v>
       </c>
       <c r="K15">
-        <v>19.70073400603187</v>
+        <v>18.56782966462488</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>14.55295115884037</v>
+        <v>18.9185510887778</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.498414049955743</v>
+        <v>8.185570494940812</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>6.106213444265361</v>
+        <v>4.357938609240524</v>
       </c>
       <c r="E16">
-        <v>5.111291038133684</v>
+        <v>10.25111202400448</v>
       </c>
       <c r="F16">
-        <v>78.15791643326602</v>
+        <v>66.64271143605966</v>
       </c>
       <c r="G16">
-        <v>2.09369496350274</v>
+        <v>3.772691667907425</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,16 +1103,16 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.227898275529427</v>
+        <v>10.5200233714548</v>
       </c>
       <c r="K16">
-        <v>18.93686177298574</v>
+        <v>18.51136636003143</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>13.99870048355872</v>
+        <v>18.93135754273946</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.338286947686715</v>
+        <v>8.151169593780688</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5.991756970603735</v>
+        <v>4.332950141765773</v>
       </c>
       <c r="E17">
-        <v>5.123203404180614</v>
+        <v>10.26506330382212</v>
       </c>
       <c r="F17">
-        <v>76.75874946047129</v>
+        <v>66.24049355830572</v>
       </c>
       <c r="G17">
-        <v>2.099867230118105</v>
+        <v>3.774445836036572</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,16 +1150,16 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.188628675994983</v>
+        <v>10.51769106982587</v>
       </c>
       <c r="K17">
-        <v>18.46326531043198</v>
+        <v>18.47872400664203</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>13.65468312582086</v>
+        <v>18.94080084952994</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.249823458734383</v>
+        <v>8.131501015462081</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>5.925608035844138</v>
+        <v>4.318617070363544</v>
       </c>
       <c r="E18">
-        <v>5.130447990050238</v>
+        <v>10.27324346741321</v>
       </c>
       <c r="F18">
-        <v>75.95123231808746</v>
+        <v>66.0087092264158</v>
       </c>
       <c r="G18">
-        <v>2.103413910635996</v>
+        <v>3.775467839988274</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,16 +1197,16 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.166364215081917</v>
+        <v>10.51643225000296</v>
       </c>
       <c r="K18">
-        <v>18.18889325419858</v>
+        <v>18.46068696569807</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>13.45524169035685</v>
+        <v>18.94681470302531</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.219770608102872</v>
+        <v>8.124862414103923</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>5.903154525036412</v>
+        <v>4.313771307352781</v>
       </c>
       <c r="E19">
-        <v>5.132967322725853</v>
+        <v>10.27603990172558</v>
       </c>
       <c r="F19">
-        <v>75.67733176686265</v>
+        <v>65.93016093165764</v>
       </c>
       <c r="G19">
-        <v>2.104614418443177</v>
+        <v>3.775816119127319</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,16 +1244,16 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.158879817003921</v>
+        <v>10.51602023509162</v>
       </c>
       <c r="K19">
-        <v>18.0956444643398</v>
+        <v>18.45470707581644</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>13.38743525292309</v>
+        <v>18.94895081292132</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.354611628165028</v>
+        <v>8.154819565648655</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>6.003973278808098</v>
+        <v>4.33560619075673</v>
       </c>
       <c r="E20">
-        <v>5.121894397248642</v>
+        <v>10.2635620508622</v>
       </c>
       <c r="F20">
-        <v>76.90797410280278</v>
+        <v>66.2833570645479</v>
       </c>
       <c r="G20">
-        <v>2.099210599588107</v>
+        <v>3.774257751954233</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.192775288855047</v>
+        <v>10.51793079327372</v>
       </c>
       <c r="K20">
-        <v>18.51388153828898</v>
+        <v>18.4821225584186</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>13.69146484982679</v>
+        <v>18.93973530511218</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.874935155967018</v>
+        <v>8.256836400493425</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>6.339111537776103</v>
+        <v>4.409415199319132</v>
       </c>
       <c r="E21">
-        <v>5.089466745439582</v>
+        <v>10.22349764967463</v>
       </c>
       <c r="F21">
-        <v>81.0113038841256</v>
+        <v>67.46440895342587</v>
       </c>
       <c r="G21">
-        <v>2.080993231349108</v>
+        <v>3.769177484709225</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.310622453263921</v>
+        <v>10.52533732324187</v>
       </c>
       <c r="K21">
-        <v>19.89653118506048</v>
+        <v>18.58302063178741</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>14.69489769691407</v>
+        <v>18.91573601217802</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.218719402973544</v>
+        <v>8.324427213704496</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>6.555921413517283</v>
+        <v>4.457925683996978</v>
       </c>
       <c r="E22">
-        <v>5.072028979103725</v>
+        <v>10.19869578108527</v>
       </c>
       <c r="F22">
-        <v>83.67342248810603</v>
+        <v>68.231210037838</v>
       </c>
       <c r="G22">
-        <v>2.068992400271711</v>
+        <v>3.765972501988667</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,16 +1385,16 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.390868422506918</v>
+        <v>10.53091308856717</v>
       </c>
       <c r="K22">
-        <v>20.78577252847692</v>
+        <v>18.6554353258629</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>15.3389705651354</v>
+        <v>18.90525416936126</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.036297883861049</v>
+        <v>8.288275290045299</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>6.440376187659272</v>
+        <v>4.43201373945981</v>
       </c>
       <c r="E23">
-        <v>5.080978736771388</v>
+        <v>10.21180671652012</v>
       </c>
       <c r="F23">
-        <v>82.25410787004506</v>
+        <v>67.82247491417607</v>
       </c>
       <c r="G23">
-        <v>2.075409560826532</v>
+        <v>3.767672561621485</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,16 +1432,16 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.347725365337466</v>
+        <v>10.52786997984128</v>
       </c>
       <c r="K23">
-        <v>20.31231572028773</v>
+        <v>18.61619931828573</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>14.99616917368654</v>
+        <v>18.91037169316056</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.347233196801648</v>
+        <v>8.153169072513583</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>5.998451370811845</v>
+        <v>4.334405286911685</v>
       </c>
       <c r="E24">
-        <v>5.122484968515534</v>
+        <v>10.26424027082062</v>
       </c>
       <c r="F24">
-        <v>76.84051939897158</v>
+        <v>66.2639801543997</v>
       </c>
       <c r="G24">
-        <v>2.099507467309193</v>
+        <v>3.774342742678252</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,16 +1479,16 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.190899636569411</v>
+        <v>10.51782215872158</v>
       </c>
       <c r="K24">
-        <v>18.49100450034411</v>
+        <v>18.48058379993731</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>13.67484103054874</v>
+        <v>18.94021521652311</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.691397329222187</v>
+        <v>8.012019205131603</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>5.509478304127204</v>
+        <v>4.230681417234951</v>
       </c>
       <c r="E25">
-        <v>5.182167801576353</v>
+        <v>10.32675609275132</v>
       </c>
       <c r="F25">
-        <v>70.89521738774232</v>
+        <v>64.56682957651904</v>
       </c>
       <c r="G25">
-        <v>2.125394663366957</v>
+        <v>3.782037242918423</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,16 +1526,16 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.033924177624646</v>
+        <v>10.51014423057723</v>
       </c>
       <c r="K25">
-        <v>16.44982495297852</v>
+        <v>18.36255009905466</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>12.27299897844524</v>
+        <v>18.99465348322428</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_101/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_101/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.912706907596791</v>
+        <v>7.190403581030058</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.156067313357373</v>
+        <v>5.13660557931589</v>
       </c>
       <c r="E2">
-        <v>10.37794237335392</v>
+        <v>5.237797347889113</v>
       </c>
       <c r="F2">
-        <v>63.30968393511017</v>
+        <v>66.41306192108593</v>
       </c>
       <c r="G2">
-        <v>3.788138677660062</v>
+        <v>2.144641535157013</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,16 +445,16 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.50720820900608</v>
+        <v>6.927285341784777</v>
       </c>
       <c r="K2">
-        <v>18.30029352255165</v>
+        <v>14.86753416796905</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>19.05373918289274</v>
+        <v>11.70839870528728</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.848610166299977</v>
+        <v>6.840734907360948</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.106801428835364</v>
+        <v>4.875181788835559</v>
       </c>
       <c r="E3">
-        <v>10.41586474912769</v>
+        <v>5.28230719719761</v>
       </c>
       <c r="F3">
-        <v>62.45627643225887</v>
+        <v>63.30948083295951</v>
       </c>
       <c r="G3">
-        <v>3.792548819160817</v>
+        <v>2.157914724056807</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,16 +492,16 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.5069123178699</v>
+        <v>6.859963063773746</v>
       </c>
       <c r="K3">
-        <v>18.27358556808354</v>
+        <v>13.80035990179569</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>19.10555646131287</v>
+        <v>11.34845807553593</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.810942253039857</v>
+        <v>6.62161107362367</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.077259667920331</v>
+        <v>4.710241050625364</v>
       </c>
       <c r="E4">
-        <v>10.44074945874019</v>
+        <v>5.312856623253563</v>
       </c>
       <c r="F4">
-        <v>61.93269357720263</v>
+        <v>61.37278221674308</v>
       </c>
       <c r="G4">
-        <v>3.795393414181876</v>
+        <v>2.166209578110099</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,16 +539,16 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.50756568988588</v>
+        <v>6.820887488134838</v>
       </c>
       <c r="K4">
-        <v>18.26483862089576</v>
+        <v>13.29487555483182</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>19.14315016938513</v>
+        <v>11.13863765655472</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.796032087916601</v>
+        <v>6.531312326825099</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.065408831346025</v>
+        <v>4.641907757876828</v>
       </c>
       <c r="E5">
-        <v>10.4512933621178</v>
+        <v>5.326096747925423</v>
       </c>
       <c r="F5">
-        <v>61.71960421174053</v>
+        <v>60.57614669200344</v>
       </c>
       <c r="G5">
-        <v>3.796587142362208</v>
+        <v>2.169630514728344</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,16 +586,16 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.50804189237857</v>
+        <v>6.805508097663878</v>
       </c>
       <c r="K5">
-        <v>18.26319860326296</v>
+        <v>13.08876715367144</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>19.15991805460574</v>
+        <v>11.0559560344202</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.793583264651499</v>
+        <v>6.516261230604684</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.063452617842469</v>
+        <v>4.630493541739067</v>
       </c>
       <c r="E6">
-        <v>10.4530685439341</v>
+        <v>5.328342515707403</v>
       </c>
       <c r="F6">
-        <v>61.68424246551374</v>
+        <v>60.44343287384012</v>
       </c>
       <c r="G6">
-        <v>3.796787449971718</v>
+        <v>2.170201134377563</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,16 +633,16 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.5081336442386</v>
+        <v>6.802986554224646</v>
       </c>
       <c r="K6">
-        <v>18.26304247293464</v>
+        <v>13.05454267485747</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>19.16278966832975</v>
+        <v>11.04239757486569</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.810739368773925</v>
+        <v>6.620397179442043</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.077099071036441</v>
+        <v>4.709324013052176</v>
       </c>
       <c r="E7">
-        <v>10.44089002399239</v>
+        <v>5.313032005150363</v>
       </c>
       <c r="F7">
-        <v>61.92981844154487</v>
+        <v>61.36206789007399</v>
       </c>
       <c r="G7">
-        <v>3.795409373205725</v>
+        <v>2.166255543877551</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,16 +680,16 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.50757126210182</v>
+        <v>6.820677903553117</v>
       </c>
       <c r="K7">
-        <v>18.26480871261396</v>
+        <v>13.29209608659789</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>19.14337045010299</v>
+        <v>11.13751114277792</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.890265552504042</v>
+        <v>7.070815425961902</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.138939530187269</v>
+        <v>5.047378279600378</v>
       </c>
       <c r="E8">
-        <v>10.39068635972137</v>
+        <v>5.252464190601695</v>
       </c>
       <c r="F8">
-        <v>63.01544621014634</v>
+        <v>65.34959075926459</v>
       </c>
       <c r="G8">
-        <v>3.789630999831816</v>
+        <v>2.149190704169145</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,16 +727,16 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.50693285794694</v>
+        <v>6.90358828486559</v>
       </c>
       <c r="K8">
-        <v>18.28949739150378</v>
+        <v>14.48468451605916</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>19.07040390755884</v>
+        <v>11.58197378200629</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.058893475823917</v>
+        <v>7.915238204625664</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.265375635853896</v>
+        <v>5.676060928032056</v>
       </c>
       <c r="E9">
-        <v>10.30489874884906</v>
+        <v>5.160178495233422</v>
       </c>
       <c r="F9">
-        <v>65.14011811406412</v>
+        <v>72.91364448945072</v>
       </c>
       <c r="G9">
-        <v>3.779378028292558</v>
+        <v>2.116662299755658</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,16 +774,16 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.5123083766045</v>
+        <v>7.085320136477375</v>
       </c>
       <c r="K9">
-        <v>18.39850025359344</v>
+        <v>17.14892946038284</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>18.97335434699354</v>
+        <v>12.69831839523762</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.189511402480823</v>
+        <v>8.51966457437732</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.36079506160779</v>
+        <v>6.119232623659059</v>
       </c>
       <c r="E10">
-        <v>10.24954117603298</v>
+        <v>5.109985811617987</v>
       </c>
       <c r="F10">
-        <v>66.68854371857732</v>
+        <v>78.31721159391901</v>
       </c>
       <c r="G10">
-        <v>3.772493270515148</v>
+        <v>2.092989997727121</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,16 +821,16 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.52030070115537</v>
+        <v>7.232424000288009</v>
       </c>
       <c r="K10">
-        <v>18.51519076550067</v>
+        <v>18.99064507040633</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>18.93035896745345</v>
+        <v>14.03774940512929</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.250170321426717</v>
+        <v>8.840371694168468</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.40461535991216</v>
+        <v>6.317534992458659</v>
       </c>
       <c r="E11">
-        <v>10.22601311752958</v>
+        <v>5.091353406613505</v>
       </c>
       <c r="F11">
-        <v>67.3881566897322</v>
+        <v>80.74664892274535</v>
       </c>
       <c r="G11">
-        <v>3.769499945592887</v>
+        <v>2.082178127145649</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.52481452554483</v>
+        <v>7.302804139215372</v>
       </c>
       <c r="K11">
-        <v>18.5761036858401</v>
+        <v>19.80783044862937</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.91698812241594</v>
+        <v>14.63059854571372</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.27329940883282</v>
+        <v>8.959764398581861</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.421256762932778</v>
+        <v>6.392237281336488</v>
       </c>
       <c r="E12">
-        <v>10.21734079457998</v>
+        <v>5.084938471977389</v>
       </c>
       <c r="F12">
-        <v>67.65222575448183</v>
+        <v>81.66316782613589</v>
       </c>
       <c r="G12">
-        <v>3.76838622499521</v>
+        <v>2.078068579041685</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,16 +915,16 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.52664995497098</v>
+        <v>7.33000385404846</v>
       </c>
       <c r="K12">
-        <v>18.60028183592968</v>
+        <v>20.11476430385051</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.91281738010174</v>
+        <v>14.85305299810797</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.268311391636885</v>
+        <v>8.934140986539699</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.417670810131937</v>
+        <v>6.376164625787668</v>
       </c>
       <c r="E13">
-        <v>10.21919799338783</v>
+        <v>5.086290907210437</v>
       </c>
       <c r="F13">
-        <v>67.59539466856683</v>
+        <v>81.4659194115963</v>
       </c>
       <c r="G13">
-        <v>3.76862520689604</v>
+        <v>2.078954486906877</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.52624905456319</v>
+        <v>7.324120624600774</v>
       </c>
       <c r="K13">
-        <v>18.59502544309159</v>
+        <v>20.04876453661981</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.91367589243644</v>
+        <v>14.80522868903394</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.252070093363722</v>
+        <v>8.850234857468024</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.405983571834851</v>
+        <v>6.323688070000458</v>
       </c>
       <c r="E14">
-        <v>10.22529488932564</v>
+        <v>5.090812576433962</v>
       </c>
       <c r="F14">
-        <v>67.40990000247945</v>
+        <v>80.82211601453338</v>
       </c>
       <c r="G14">
-        <v>3.769407923388686</v>
+        <v>2.081840396936351</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,16 +1009,16 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.52496300019016</v>
+        <v>7.305030567078447</v>
       </c>
       <c r="K14">
-        <v>18.57807064494352</v>
+        <v>19.8331296658711</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.91662709227439</v>
+        <v>14.64893895149991</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.242141938666412</v>
+        <v>8.798575125298782</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.398830649361954</v>
+        <v>6.291496634095273</v>
       </c>
       <c r="E15">
-        <v>10.22906029082294</v>
+        <v>5.093666848230711</v>
       </c>
       <c r="F15">
-        <v>67.29616222626618</v>
+        <v>80.42734190975716</v>
       </c>
       <c r="G15">
-        <v>3.76988993242925</v>
+        <v>2.083605807953944</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.52419167788335</v>
+        <v>7.293410405887086</v>
       </c>
       <c r="K15">
-        <v>18.56782966462488</v>
+        <v>19.70073400603192</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.9185510887778</v>
+        <v>14.55295115884037</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.185570494940812</v>
+        <v>8.498414049955809</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.357938609240524</v>
+        <v>6.106213444265443</v>
       </c>
       <c r="E16">
-        <v>10.25111202400448</v>
+        <v>5.111291038133637</v>
       </c>
       <c r="F16">
-        <v>66.64271143605966</v>
+        <v>78.15791643326635</v>
       </c>
       <c r="G16">
-        <v>3.772691667907425</v>
+        <v>2.093694963502987</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,16 +1103,16 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.5200233714548</v>
+        <v>7.227898275529436</v>
       </c>
       <c r="K16">
-        <v>18.51136636003143</v>
+        <v>18.93686177298584</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>18.93135754273946</v>
+        <v>13.99870048355883</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.151169593780688</v>
+        <v>8.338286947686727</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.332950141765773</v>
+        <v>5.991756970603852</v>
       </c>
       <c r="E17">
-        <v>10.26506330382212</v>
+        <v>5.123203404180555</v>
       </c>
       <c r="F17">
-        <v>66.24049355830572</v>
+        <v>76.75874946047145</v>
       </c>
       <c r="G17">
-        <v>3.774445836036572</v>
+        <v>2.099867230118097</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,16 +1150,16 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.51769106982587</v>
+        <v>7.188628675994919</v>
       </c>
       <c r="K17">
-        <v>18.47872400664203</v>
+        <v>18.46326531043205</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>18.94080084952994</v>
+        <v>13.65468312582091</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.131501015462081</v>
+        <v>8.249823458734387</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.318617070363544</v>
+        <v>5.925608035844141</v>
       </c>
       <c r="E18">
-        <v>10.27324346741321</v>
+        <v>5.130447990050125</v>
       </c>
       <c r="F18">
-        <v>66.0087092264158</v>
+        <v>75.95123231808761</v>
       </c>
       <c r="G18">
-        <v>3.775467839988274</v>
+        <v>2.103413910635877</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,16 +1197,16 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.51643225000296</v>
+        <v>7.166364215081876</v>
       </c>
       <c r="K18">
-        <v>18.46068696569807</v>
+        <v>18.18889325419851</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>18.94681470302531</v>
+        <v>13.45524169035683</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.124862414103923</v>
+        <v>8.219770608102884</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.313771307352781</v>
+        <v>5.903154525036396</v>
       </c>
       <c r="E19">
-        <v>10.27603990172558</v>
+        <v>5.132967322725937</v>
       </c>
       <c r="F19">
-        <v>65.93016093165764</v>
+        <v>75.67733176686264</v>
       </c>
       <c r="G19">
-        <v>3.775816119127319</v>
+        <v>2.10461441844369</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,16 +1244,16 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.51602023509162</v>
+        <v>7.158879817003923</v>
       </c>
       <c r="K19">
-        <v>18.45470707581644</v>
+        <v>18.09564446433976</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>18.94895081292132</v>
+        <v>13.38743525292302</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.154819565648655</v>
+        <v>8.35461162816503</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.33560619075673</v>
+        <v>6.003973278808098</v>
       </c>
       <c r="E20">
-        <v>10.2635620508622</v>
+        <v>5.121894397248654</v>
       </c>
       <c r="F20">
-        <v>66.2833570645479</v>
+        <v>76.90797410280271</v>
       </c>
       <c r="G20">
-        <v>3.774257751954233</v>
+        <v>2.099210599588111</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.51793079327372</v>
+        <v>7.192775288855054</v>
       </c>
       <c r="K20">
-        <v>18.4821225584186</v>
+        <v>18.51388153828896</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>18.93973530511218</v>
+        <v>13.6914648498268</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.256836400493425</v>
+        <v>8.874935155967025</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.409415199319132</v>
+        <v>6.339111537776182</v>
       </c>
       <c r="E21">
-        <v>10.22349764967463</v>
+        <v>5.08946674543951</v>
       </c>
       <c r="F21">
-        <v>67.46440895342587</v>
+        <v>81.01130388412558</v>
       </c>
       <c r="G21">
-        <v>3.769177484709225</v>
+        <v>2.080993231348978</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.52533732324187</v>
+        <v>7.310622453263933</v>
       </c>
       <c r="K21">
-        <v>18.58302063178741</v>
+        <v>19.89653118506041</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.91573601217802</v>
+        <v>14.69489769691406</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.324427213704496</v>
+        <v>9.218719402973461</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.457925683996978</v>
+        <v>6.555921413517162</v>
       </c>
       <c r="E22">
-        <v>10.19869578108527</v>
+        <v>5.072028979103844</v>
       </c>
       <c r="F22">
-        <v>68.231210037838</v>
+        <v>83.67342248810583</v>
       </c>
       <c r="G22">
-        <v>3.765972501988667</v>
+        <v>2.068992400271712</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,16 +1385,16 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.53091308856717</v>
+        <v>7.390868422506889</v>
       </c>
       <c r="K22">
-        <v>18.6554353258629</v>
+        <v>20.78577252847716</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>18.90525416936126</v>
+        <v>15.33897056513551</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.288275290045299</v>
+        <v>9.03629788386108</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.43201373945981</v>
+        <v>6.440376187659226</v>
       </c>
       <c r="E23">
-        <v>10.21180671652012</v>
+        <v>5.080978736771562</v>
       </c>
       <c r="F23">
-        <v>67.82247491417607</v>
+        <v>82.25410787004522</v>
       </c>
       <c r="G23">
-        <v>3.767672561621485</v>
+        <v>2.075409560826791</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,16 +1432,16 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.52786997984128</v>
+        <v>7.347725365337521</v>
       </c>
       <c r="K23">
-        <v>18.61619931828573</v>
+        <v>20.31231572028791</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.91037169316056</v>
+        <v>14.99616917368659</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.153169072513583</v>
+        <v>8.347233196801676</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.334405286911685</v>
+        <v>5.998451370811978</v>
       </c>
       <c r="E24">
-        <v>10.26424027082062</v>
+        <v>5.122484968515582</v>
       </c>
       <c r="F24">
-        <v>66.2639801543997</v>
+        <v>76.84051939897203</v>
       </c>
       <c r="G24">
-        <v>3.774342742678252</v>
+        <v>2.099507467309218</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,16 +1479,16 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.51782215872158</v>
+        <v>7.190899636569482</v>
       </c>
       <c r="K24">
-        <v>18.48058379993731</v>
+        <v>18.49100450034399</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>18.94021521652311</v>
+        <v>13.67484103054863</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>8.012019205131603</v>
+        <v>7.691397329222214</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.230681417234951</v>
+        <v>5.509478304127177</v>
       </c>
       <c r="E25">
-        <v>10.32675609275132</v>
+        <v>5.182167801576514</v>
       </c>
       <c r="F25">
-        <v>64.56682957651904</v>
+        <v>70.89521738774232</v>
       </c>
       <c r="G25">
-        <v>3.782037242918423</v>
+        <v>2.125394663367354</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,16 +1526,16 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.51014423057723</v>
+        <v>7.03392417762474</v>
       </c>
       <c r="K25">
-        <v>18.36255009905466</v>
+        <v>16.44982495297862</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>18.99465348322428</v>
+        <v>12.27299897844524</v>
       </c>
       <c r="N25">
         <v>0</v>
